--- a/Components.xlsx
+++ b/Components.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
   <si>
     <t>RJ-11</t>
   </si>
@@ -246,9 +246,6 @@
     <t>U2</t>
   </si>
   <si>
-    <t>C2, C3, C6</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -256,6 +253,51 @@
   </si>
   <si>
     <t>40mm diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JST-EH 5 pin </t>
+  </si>
+  <si>
+    <t>socket</t>
+  </si>
+  <si>
+    <t>crimp connectors</t>
+  </si>
+  <si>
+    <t>difiKey: SER3618CT-ND</t>
+  </si>
+  <si>
+    <t>Epson/SG-3030JC 32.7680 (10.50mm x 5.00mm)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C2, C6</t>
+  </si>
+  <si>
+    <t>Cap &gt;0.1uF (0.22uF)</t>
+  </si>
+  <si>
+    <t>digiKey: 478-8818-ND</t>
+  </si>
+  <si>
+    <t>455-1614-ND</t>
+  </si>
+  <si>
+    <t>receptacle (housing)</t>
+  </si>
+  <si>
+    <t>EHR-5</t>
+  </si>
+  <si>
+    <t>455-1003-ND</t>
+  </si>
+  <si>
+    <t>455-1042-1-ND</t>
+  </si>
+  <si>
+    <t>SEH-001T-P0.6</t>
   </si>
 </sst>
 </file>
@@ -349,7 +391,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -363,6 +405,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J27"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -711,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G4" si="0">E3*F3</f>
+        <f t="shared" ref="G3:G7" si="0">E3*F3</f>
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -719,491 +769,587 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>200</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="6" customFormat="1">
-      <c r="A5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6">
-        <v>2.95</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <f>E5*F5</f>
-        <v>2.95</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
+      <c r="H5" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="E6" s="2">
-        <v>2.86</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <f t="shared" ref="G6:G21" si="1">E6*F6</f>
-        <v>0</v>
+      <c r="H6" s="17" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>2.0299999999999998</v>
+        <v>200</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="6">
-        <v>0.4</v>
+        <v>2.95</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6">
+        <f>E8*F8</f>
+        <v>2.95</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.86</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G25" si="1">E9*F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="6" customFormat="1">
-      <c r="A9" s="6" t="s">
+    <row r="12" spans="1:10" s="6" customFormat="1">
+      <c r="A12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9">
         <v>0.75</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:10">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E13" s="2">
         <v>0.53</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F13" s="2">
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="6" customFormat="1">
-      <c r="A11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="14" spans="1:10" s="6" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E14" s="6">
         <v>0.42</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.84</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1">
+      <c r="A15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="F15" s="15">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G15" s="15">
         <f t="shared" si="1"/>
         <v>0.42</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="C12" s="5" t="s">
+      <c r="H15" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="6" customFormat="1">
-      <c r="A13" s="6" t="s">
+    <row r="17" spans="1:9" s="6" customFormat="1">
+      <c r="A17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>0.51</v>
       </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="C14" s="2" t="s">
+    <row r="18" spans="1:9">
+      <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E18" s="2">
         <v>0.5</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1">
-      <c r="A15" s="11" t="s">
+    <row r="19" spans="1:9" s="11" customFormat="1">
+      <c r="A19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="11">
         <v>8</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="6" customFormat="1">
-      <c r="A16" s="6" t="s">
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E20" s="6">
         <v>3.44</v>
       </c>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="C17" s="1" t="s">
+    <row r="21" spans="1:9">
+      <c r="C21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E22" s="2">
         <v>5.23</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
-        <f>F18*E18</f>
+      <c r="G22" s="2">
+        <f>F22*E22</f>
         <v>5.23</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="6" customFormat="1">
-      <c r="A19" s="6" t="s">
+    <row r="23" spans="1:9" s="6" customFormat="1">
+      <c r="A23" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E23" s="6">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="D20" s="2" t="s">
+    <row r="24" spans="1:9">
+      <c r="D24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E24" s="2">
         <v>2.88</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F24" s="2">
         <v>2</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="1"/>
         <v>5.76</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="6" customFormat="1">
-      <c r="A21" s="6" t="s">
+    <row r="25" spans="1:9" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E25" s="6">
         <v>1.58</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>1.58</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="C22" s="1"/>
-      <c r="D22" s="12" t="s">
+    <row r="26" spans="1:9" s="13" customFormat="1">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="C27" s="1"/>
+      <c r="D27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E27" s="5">
         <v>1.75</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="6" customFormat="1">
-      <c r="A23" s="6" t="s">
+    <row r="28" spans="1:9" s="6" customFormat="1">
+      <c r="A28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E28" s="6">
         <v>0.1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
-        <f>F23*E23</f>
+      <c r="G28" s="6">
+        <f>F28*E28</f>
         <v>0.1</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="6" customFormat="1">
-      <c r="A24" s="6" t="s">
+    <row r="29" spans="1:9" s="6" customFormat="1">
+      <c r="A29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F29" s="6">
         <v>3</v>
       </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1">
-      <c r="A25" s="6" t="s">
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" s="6" customFormat="1">
+      <c r="A30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F30" s="6">
         <v>3</v>
       </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="B26" s="2" t="s">
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="F27" s="2" t="s">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="2">
-        <f>SUM(G3:G23)</f>
-        <v>26</v>
+      <c r="G34" s="2">
+        <f>SUM(G3:G28)</f>
+        <v>26.839999999999996</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" display="http://www.digikey.com/en/supplier-centers/e/e-switch"/>
-    <hyperlink ref="C19" r:id="rId2"/>
-    <hyperlink ref="C17" r:id="rId3"/>
-    <hyperlink ref="D17" r:id="rId4"/>
-    <hyperlink ref="D18" r:id="rId5"/>
-    <hyperlink ref="C21" r:id="rId6" display="32.768kHz"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="H10" r:id="rId8"/>
-    <hyperlink ref="H23" r:id="rId9"/>
-    <hyperlink ref="H22" r:id="rId10"/>
+    <hyperlink ref="D23" r:id="rId1" display="http://www.digikey.com/en/supplier-centers/e/e-switch"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="D21" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6" display="32.768kHz"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="H28" r:id="rId8"/>
+    <hyperlink ref="H27" r:id="rId9"/>
+    <hyperlink ref="H26" r:id="rId10"/>
+    <hyperlink ref="H13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="7755" tabRatio="302"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="13395" windowHeight="7755" tabRatio="302" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="order_13_Nov" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>RJ-11</t>
   </si>
@@ -240,9 +241,6 @@
     <t>R3, R5, R6</t>
   </si>
   <si>
-    <t>R1, R2, R4</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -298,13 +296,64 @@
   </si>
   <si>
     <t>SEH-001T-P0.6</t>
+  </si>
+  <si>
+    <t>number for 10 boards</t>
+  </si>
+  <si>
+    <t>unit cost</t>
+  </si>
+  <si>
+    <t>line price</t>
+  </si>
+  <si>
+    <t>digiKey: RNF 18FTD4K75CT-ND</t>
+  </si>
+  <si>
+    <t>digiKey: 18FTD1K00CT-ND</t>
+  </si>
+  <si>
+    <t>digiKey:  RNF18FTD10K0CT-ND</t>
+  </si>
+  <si>
+    <t>digiKey:  RNF18FTD523RCT-ND</t>
+  </si>
+  <si>
+    <t> 523R</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R1, R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>in stock</t>
+  </si>
+  <si>
+    <t>num to order</t>
+  </si>
+  <si>
+    <t>digiKey: PIC18LF1320-I/SO-ND, microchip.com</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>digiKey: SER3618CT-ND</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +394,99 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -413,6 +555,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -710,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -770,13 +940,13 @@
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="E4" s="2">
         <v>0.1</v>
@@ -785,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>0.24</v>
@@ -800,16 +970,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2">
         <v>0.1</v>
@@ -818,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -841,7 +1011,7 @@
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -975,7 +1145,7 @@
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>20</v>
@@ -999,10 +1169,10 @@
     </row>
     <row r="15" spans="1:10" s="13" customFormat="1">
       <c r="A15" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>22</v>
@@ -1018,7 +1188,7 @@
         <v>0.42</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1078,7 +1248,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="11">
         <v>8</v>
@@ -1091,7 +1261,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="6" customFormat="1">
@@ -1204,7 +1374,7 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1">
       <c r="A25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>51</v>
@@ -1232,13 +1402,13 @@
     <row r="26" spans="1:9" s="13" customFormat="1">
       <c r="C26" s="14"/>
       <c r="D26" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="15">
         <v>1.53</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1282,7 +1452,7 @@
     </row>
     <row r="29" spans="1:9" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>69</v>
@@ -1291,7 +1461,10 @@
         <v>70</v>
       </c>
       <c r="F29" s="6">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0.1</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -1308,6 +1481,9 @@
       <c r="F30" s="6">
         <v>3</v>
       </c>
+      <c r="G30" s="6">
+        <v>0.1</v>
+      </c>
       <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:9">
@@ -1320,6 +1496,21 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:9">
+      <c r="A32" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0.1</v>
+      </c>
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="6:8">
@@ -1355,13 +1546,1074 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="7" width="20.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="10" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="52" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="23">
+        <v>3.9</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="J3" s="23">
+        <f t="shared" ref="J3:J7" si="0">E3*F3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="21" customFormat="1">
+      <c r="B4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <f>F5*10</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <f>G5-H5</f>
+        <v>8</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="K5" s="19">
+        <f>I5*J5</f>
+        <v>1.92</v>
+      </c>
+      <c r="L5" s="19">
+        <v>11</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="19" customFormat="1">
+      <c r="B6" s="20"/>
+      <c r="C6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5</v>
+      </c>
+      <c r="I6" s="19">
+        <v>10</v>
+      </c>
+      <c r="J6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="19">
+        <f>I6*J6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>12</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23">
+        <v>200</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" s="6" customFormat="1">
+      <c r="A8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.95</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <f>F8*10</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="6">
+        <v>8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4</v>
+      </c>
+      <c r="J8" s="6">
+        <f>E8*F8</f>
+        <v>2.95</v>
+      </c>
+      <c r="K8" s="19">
+        <f>I8*J8</f>
+        <v>11.8</v>
+      </c>
+      <c r="L8" s="19">
+        <v>13</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23">
+        <v>2.86</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
+        <f t="shared" ref="J9:J25" si="1">E9*F9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" s="6" customFormat="1">
+      <c r="A11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <f>F11*10</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>15</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K11" s="19">
+        <f>I11*J11</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="19">
+        <v>9</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="6" customFormat="1">
+      <c r="A12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="19">
+        <f>F13*10</f>
+        <v>20</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+      <c r="K13" s="19">
+        <f>I13*J13</f>
+        <v>26.5</v>
+      </c>
+      <c r="L13" s="19">
+        <v>1</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="6" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <f>F14*10</f>
+        <v>20</v>
+      </c>
+      <c r="H14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="19">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="K14" s="19">
+        <f>I14*J14</f>
+        <v>10.5</v>
+      </c>
+      <c r="L14" s="19">
+        <v>14</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="13" customFormat="1">
+      <c r="A15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <f>F15*10</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>10</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="K15" s="19">
+        <f>I15*J15</f>
+        <v>4.2</v>
+      </c>
+      <c r="L15" s="19">
+        <v>15</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="21" customFormat="1">
+      <c r="C16" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="6" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30">
+        <v>0.51</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <f>F18*10</f>
+        <v>10</v>
+      </c>
+      <c r="H18" s="15">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="19">
+        <f>I18*J18</f>
+        <v>5</v>
+      </c>
+      <c r="L18" s="19">
+        <v>16</v>
+      </c>
+      <c r="M18" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="32" customFormat="1">
+      <c r="A19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="32">
+        <v>8</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1</v>
+      </c>
+      <c r="J19" s="32">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="29">
+        <v>3.44</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="C21" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+    </row>
+    <row r="22" spans="1:18" ht="14.25" customHeight="1">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <f>F22*10</f>
+        <v>10</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>12</v>
+      </c>
+      <c r="J22" s="2">
+        <f>F22*E22</f>
+        <v>5.23</v>
+      </c>
+      <c r="K22" s="19">
+        <f>I22*J22</f>
+        <v>62.760000000000005</v>
+      </c>
+      <c r="L22" s="19">
+        <v>5</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="6" customFormat="1">
+      <c r="A23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="29">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F23" s="29">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19">
+        <f>F24*10</f>
+        <v>20</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>22</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>5.76</v>
+      </c>
+      <c r="K24" s="19">
+        <f>I24*J24</f>
+        <v>126.72</v>
+      </c>
+      <c r="L24" s="19">
+        <v>2</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1">
+      <c r="A25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.58</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <f>F25*10</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="6">
+        <v>3</v>
+      </c>
+      <c r="I25" s="19">
+        <v>15</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="K25" s="19">
+        <f>I25*J25</f>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="L25" s="19">
+        <v>3</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="13" customFormat="1">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1.53</v>
+      </c>
+      <c r="G26" s="13">
+        <v>10</v>
+      </c>
+      <c r="H26" s="13">
+        <v>3</v>
+      </c>
+      <c r="I26" s="19">
+        <v>10</v>
+      </c>
+      <c r="L26" s="42">
+        <v>17</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="C27" s="33"/>
+      <c r="D27" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1.75</v>
+      </c>
+      <c r="F27" s="31">
+        <v>0</v>
+      </c>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:18" s="6" customFormat="1">
+      <c r="A28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <f>F28*10</f>
+        <v>10</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28" s="19">
+        <v>15</v>
+      </c>
+      <c r="J28" s="6">
+        <f>F28*E28</f>
+        <v>0.1</v>
+      </c>
+      <c r="K28" s="19">
+        <f>I28*J28</f>
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="19">
+        <v>4</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="6" customFormat="1">
+      <c r="A29" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="6">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19">
+        <f>F29*10</f>
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
+        <v>6</v>
+      </c>
+      <c r="I29" s="19">
+        <f>G29-H29</f>
+        <v>14</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K29" s="19">
+        <f>I29*J29</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="L29" s="19">
+        <v>7</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="6" customFormat="1">
+      <c r="A30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="19">
+        <f>F30*10</f>
+        <v>30</v>
+      </c>
+      <c r="H30" s="6">
+        <v>6</v>
+      </c>
+      <c r="I30" s="19">
+        <f>G30-H30</f>
+        <v>24</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K30" s="19">
+        <f>I30*J30</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="L30" s="19">
+        <v>8</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="19">
+        <f>10*F30</f>
+        <v>30</v>
+      </c>
+      <c r="H31" s="15">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
+        <f>G31-H31</f>
+        <v>30</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K31" s="19">
+        <f>I31*J31</f>
+        <v>3</v>
+      </c>
+      <c r="L31" s="19">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <f>F32*10</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="15">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <f>G32-H32</f>
+        <v>10</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K32" s="19">
+        <f>I32*J32</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
+        <v>18</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="6:13">
+      <c r="F34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="2">
+        <f>SUM(K3:K32)</f>
+        <v>289.39999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D23" r:id="rId1" display="http://www.digikey.com/en/supplier-centers/e/e-switch"/>
+    <hyperlink ref="C23" r:id="rId2"/>
+    <hyperlink ref="C21" r:id="rId3"/>
+    <hyperlink ref="D21" r:id="rId4"/>
+    <hyperlink ref="D22" r:id="rId5"/>
+    <hyperlink ref="C25" r:id="rId6" display="32.768kHz"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="M28" r:id="rId8"/>
+    <hyperlink ref="M27" r:id="rId9"/>
+    <hyperlink ref="M26" r:id="rId10" display="difiKey: SER3618CT-ND"/>
+    <hyperlink ref="M13" r:id="rId11"/>
+    <hyperlink ref="M31" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1375,4 +2627,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Components.xlsx
+++ b/Components.xlsx
@@ -1549,10 +1549,10 @@
   <dimension ref="A2:R34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
